--- a/medicine/Enfance/Lyman_Frank_Baum/Lyman_Frank_Baum.xlsx
+++ b/medicine/Enfance/Lyman_Frank_Baum/Lyman_Frank_Baum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyman Frank Baum (né le 15 mai 1856 à Chittenango, mort le 6 mai 1919 à Hollywood) est un écrivain, un acteur et un réalisateur indépendant américain, plus connu comme créateur, avec l'illustrateur William Wallace Denslow, d'un des livres pour enfants les plus populaires aux États-Unis : Le Magicien d'Oz (1900). Il écrivit treize suites, neuf autres romans sur la Fantasy, et fit de nombreux efforts pour porter son travail à l'écran.
 Il est l'arrière-grand-père de Roger S. Baum, qui a poursuivi son œuvre.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Chittenango dans l'État de New York en 1856. Il a des ancêtres britanniques et allemands. Il est le fils de Benjamin Ward Baum  et Cynthia Ann[1]. Son père était négociant, il travaillait dans le domaine du pétrole en Pennsylvanie[2]. À l'âge de 12 ans, Frank étudie durant deux ans à l'Académie militaire Peekskill.
-À 17 ans, son père lui offre une petite rotative. Avec son frère Henry, ils créent le journal The Rose Lawn Home Journal, puis le The Stamp Collector, et plus tard ils publient des timbres. À 20 ans, il publie un mensuel, le The Poultry Record. C'est en 1886, à l'âge de 30 ans, qu'il publie son premier roman, The Book of the Hamburgs: A Brief Treatise upon the Mating, Rearing, and Management of the Different Varieties of Hamburgs[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Chittenango dans l'État de New York en 1856. Il a des ancêtres britanniques et allemands. Il est le fils de Benjamin Ward Baum  et Cynthia Ann. Son père était négociant, il travaillait dans le domaine du pétrole en Pennsylvanie. À l'âge de 12 ans, Frank étudie durant deux ans à l'Académie militaire Peekskill.
+À 17 ans, son père lui offre une petite rotative. Avec son frère Henry, ils créent le journal The Rose Lawn Home Journal, puis le The Stamp Collector, et plus tard ils publient des timbres. À 20 ans, il publie un mensuel, le The Poultry Record. C'est en 1886, à l'âge de 30 ans, qu'il publie son premier roman, The Book of the Hamburgs: A Brief Treatise upon the Mating, Rearing, and Management of the Different Varieties of Hamburgs. 
 En 1900, il publie The Art of Decorating Dry Goods Windows and Interiors, où il présente notamment The Vanishing Lady, ainsi que son célèbre livre pour la jeunesse The Wonderful Wizard of Oz (en français Le Magicien d'Oz), un roman d’aventure fantastique avec la petite Dorothy, l’Épouvantail, le Bûcheron de Fer-blanc et le Lion Froussard.
 Lyman Frank Baum s’éteint le 6 mai 1919 des suites d’un accident vasculaire cérébral. Il est enterré au cimetière de Forest Lawn Memorial Park de Glendale en Californie.
 </t>
